--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23991.13338645058</v>
+        <v>4774235.543903667</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23991.13338645058</v>
+        <v>4774235.543903667</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34426.61474273593</v>
+        <v>2306095.355217552</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34426.61474273593</v>
+        <v>2306095.355217552</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418585979.508723</v>
+        <v>55966149.66295103</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12192.55413572531</v>
+        <v>1266230.47149741</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23773.6133850351</v>
+        <v>2431154.233805059</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35354.67263434487</v>
+        <v>3596077.99611271</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48624.77160474701</v>
+        <v>4705068.739632139</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61824.23138322992</v>
+        <v>5800002.283959649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75023.69116171282</v>
+        <v>6894935.828287154</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88634.75094019572</v>
+        <v>8004430.865947991</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102341.5754423638</v>
+        <v>9105341.063314902</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115494.0936032759</v>
+        <v>10176032.06111061</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128592.7882717198</v>
+        <v>11275740.92533824</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141464.1747519291</v>
+        <v>12385515.62175389</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>153614.5119310396</v>
+        <v>13496569.55017292</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165703.0755590956</v>
+        <v>14628540.76659652</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178296.4199616262</v>
+        <v>15718309.70619559</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>191044.1184613233</v>
+        <v>16707937.98363565</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>214.0000000002378</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>223</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>231</v>
